--- a/Exercise/Excel/concatExcel/产品统计表.xlsx
+++ b/Exercise/Excel/concatExcel/产品统计表.xlsx
@@ -1,89 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cxs\PycharmProjects\Python-learn\Exercise\concatExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ACF71C-1ABC-413A-8911-796C1E740670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
-  <si>
-    <t>单号</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>本价（元/个）</t>
-  </si>
-  <si>
-    <t>售价（元/个）</t>
-  </si>
-  <si>
-    <t>数量（个）</t>
-  </si>
-  <si>
-    <t>成本（元）</t>
-  </si>
-  <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>利润（元/个）</t>
-  </si>
-  <si>
-    <t>双肩包</t>
-  </si>
-  <si>
-    <t>手提包</t>
-  </si>
-  <si>
-    <t>背包</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -98,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,910 +420,1910 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>产品名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>本价（元/个）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>售价（元/个）</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>数量（个）</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>成本（元）</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>收入</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>利润（元/个）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>6123101</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>24</v>
       </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
         <v>2400</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>10000</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>7600</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>6123102</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
         <v>101</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2424</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>10100</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>7676</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>6123103</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
         <v>102</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>2448</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>10200</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>7752</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>6123104</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>24</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="n">
         <v>103</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>2472</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>10300</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>7828</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>6123105</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="n">
         <v>104</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>2496</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>10400</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>7904</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6123106</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="n">
         <v>105</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>2520</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>10500</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>7980</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>6123107</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
         <v>106</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>2544</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>10600</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>8056</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>6123108</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
         <v>107</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>2568</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>10700</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>8132</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>6123109</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>24</v>
       </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="n">
         <v>108</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>2592</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>10800</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>8208</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>6123110</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>24</v>
       </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
+      <c r="D11" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" t="n">
         <v>109</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>2616</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>10900</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>8284</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>6123111</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>24</v>
       </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
+      <c r="D12" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" t="n">
         <v>110</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>2640</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>11000</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>8360</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>6123122</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>50</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>666</v>
       </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
         <v>5000</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>66600</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>61600</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>6123123</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>666</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>101</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>5050</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>67266</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>62216</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>6123124</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>50</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>666</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>102</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>5100</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>67932</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>62832</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>6123125</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>50</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>666</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>103</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>5150</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>68598</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>63448</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>6123126</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>666</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>104</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>5200</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>69264</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>64064</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>6123127</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>50</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>666</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>105</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>5250</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>69930</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>64680</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>6123128</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>50</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>666</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>106</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>5300</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>70596</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>65296</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>6123129</v>
       </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>50</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>666</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>107</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>5350</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>71262</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>65912</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>6123130</v>
       </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>50</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>666</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>108</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>5400</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>71928</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>66528</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>6123131</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>50</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>666</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>109</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>5450</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>72594</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>67144</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>6123132</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>50</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>666</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>110</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>5500</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>73260</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>67760</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>6123001</v>
       </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>20</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>55</v>
       </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="n">
         <v>2000</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>5500</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>3500</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>6123002</v>
       </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>20</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>55</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>101</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>2020</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>5555</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>3535</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>6123003</v>
       </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>20</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>55</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>102</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>2040</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>5610</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>3570</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>6123004</v>
       </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>20</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>55</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>103</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>2060</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>5665</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>3605</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>6123005</v>
       </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>20</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>55</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>104</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>2080</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>5720</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>3640</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>6123006</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>20</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>55</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>105</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>2100</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>5775</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>3675</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>6123007</v>
       </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>20</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>55</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>106</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>2120</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>5830</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>3710</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>6123008</v>
       </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>20</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>55</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>107</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>2140</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>5885</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>3745</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>6123009</v>
       </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>20</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>55</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>108</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>2160</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>5940</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>3780</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>6123010</v>
       </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>20</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>55</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>109</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>2180</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>5995</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>3815</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>6123011</v>
       </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>20</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>55</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>110</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>2200</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>6050</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>3850</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6123101</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>24</v>
+      </c>
+      <c r="D35" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6123102</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>24</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="n">
+        <v>101</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2424</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10100</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7676</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6123103</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>24</v>
+      </c>
+      <c r="D37" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" t="n">
+        <v>102</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2448</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10200</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6123104</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>24</v>
+      </c>
+      <c r="D38" t="n">
+        <v>100</v>
+      </c>
+      <c r="E38" t="n">
+        <v>103</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2472</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10300</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7828</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6123105</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>24</v>
+      </c>
+      <c r="D39" t="n">
+        <v>100</v>
+      </c>
+      <c r="E39" t="n">
+        <v>104</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2496</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10400</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6123106</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>24</v>
+      </c>
+      <c r="D40" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" t="n">
+        <v>105</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2520</v>
+      </c>
+      <c r="G40" t="n">
+        <v>10500</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6123107</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>24</v>
+      </c>
+      <c r="D41" t="n">
+        <v>100</v>
+      </c>
+      <c r="E41" t="n">
+        <v>106</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2544</v>
+      </c>
+      <c r="G41" t="n">
+        <v>10600</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8056</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6123108</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>24</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>107</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2568</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10700</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6123109</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>24</v>
+      </c>
+      <c r="D43" t="n">
+        <v>100</v>
+      </c>
+      <c r="E43" t="n">
+        <v>108</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2592</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10800</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8208</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6123110</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>24</v>
+      </c>
+      <c r="D44" t="n">
+        <v>100</v>
+      </c>
+      <c r="E44" t="n">
+        <v>109</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2616</v>
+      </c>
+      <c r="G44" t="n">
+        <v>10900</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6123111</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>双肩包</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>24</v>
+      </c>
+      <c r="D45" t="n">
+        <v>100</v>
+      </c>
+      <c r="E45" t="n">
+        <v>110</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2640</v>
+      </c>
+      <c r="G45" t="n">
+        <v>11000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6123122</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>50</v>
+      </c>
+      <c r="D46" t="n">
+        <v>666</v>
+      </c>
+      <c r="E46" t="n">
+        <v>100</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>66600</v>
+      </c>
+      <c r="H46" t="n">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6123123</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>50</v>
+      </c>
+      <c r="D47" t="n">
+        <v>666</v>
+      </c>
+      <c r="E47" t="n">
+        <v>101</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5050</v>
+      </c>
+      <c r="G47" t="n">
+        <v>67266</v>
+      </c>
+      <c r="H47" t="n">
+        <v>62216</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6123124</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" t="n">
+        <v>666</v>
+      </c>
+      <c r="E48" t="n">
+        <v>102</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5100</v>
+      </c>
+      <c r="G48" t="n">
+        <v>67932</v>
+      </c>
+      <c r="H48" t="n">
+        <v>62832</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6123125</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>50</v>
+      </c>
+      <c r="D49" t="n">
+        <v>666</v>
+      </c>
+      <c r="E49" t="n">
+        <v>103</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5150</v>
+      </c>
+      <c r="G49" t="n">
+        <v>68598</v>
+      </c>
+      <c r="H49" t="n">
+        <v>63448</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6123126</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>50</v>
+      </c>
+      <c r="D50" t="n">
+        <v>666</v>
+      </c>
+      <c r="E50" t="n">
+        <v>104</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G50" t="n">
+        <v>69264</v>
+      </c>
+      <c r="H50" t="n">
+        <v>64064</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6123127</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="n">
+        <v>666</v>
+      </c>
+      <c r="E51" t="n">
+        <v>105</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5250</v>
+      </c>
+      <c r="G51" t="n">
+        <v>69930</v>
+      </c>
+      <c r="H51" t="n">
+        <v>64680</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6123128</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="n">
+        <v>666</v>
+      </c>
+      <c r="E52" t="n">
+        <v>106</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5300</v>
+      </c>
+      <c r="G52" t="n">
+        <v>70596</v>
+      </c>
+      <c r="H52" t="n">
+        <v>65296</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6123129</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>50</v>
+      </c>
+      <c r="D53" t="n">
+        <v>666</v>
+      </c>
+      <c r="E53" t="n">
+        <v>107</v>
+      </c>
+      <c r="F53" t="n">
+        <v>5350</v>
+      </c>
+      <c r="G53" t="n">
+        <v>71262</v>
+      </c>
+      <c r="H53" t="n">
+        <v>65912</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6123130</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>50</v>
+      </c>
+      <c r="D54" t="n">
+        <v>666</v>
+      </c>
+      <c r="E54" t="n">
+        <v>108</v>
+      </c>
+      <c r="F54" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G54" t="n">
+        <v>71928</v>
+      </c>
+      <c r="H54" t="n">
+        <v>66528</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6123131</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>50</v>
+      </c>
+      <c r="D55" t="n">
+        <v>666</v>
+      </c>
+      <c r="E55" t="n">
+        <v>109</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5450</v>
+      </c>
+      <c r="G55" t="n">
+        <v>72594</v>
+      </c>
+      <c r="H55" t="n">
+        <v>67144</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6123132</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>手提包</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>50</v>
+      </c>
+      <c r="D56" t="n">
+        <v>666</v>
+      </c>
+      <c r="E56" t="n">
+        <v>110</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G56" t="n">
+        <v>73260</v>
+      </c>
+      <c r="H56" t="n">
+        <v>67760</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6123001</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5500</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6123002</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>20</v>
+      </c>
+      <c r="D58" t="n">
+        <v>55</v>
+      </c>
+      <c r="E58" t="n">
+        <v>101</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5555</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3535</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6123003</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20</v>
+      </c>
+      <c r="D59" t="n">
+        <v>55</v>
+      </c>
+      <c r="E59" t="n">
+        <v>102</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2040</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5610</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6123004</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>20</v>
+      </c>
+      <c r="D60" t="n">
+        <v>55</v>
+      </c>
+      <c r="E60" t="n">
+        <v>103</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2060</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5665</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6123005</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>20</v>
+      </c>
+      <c r="D61" t="n">
+        <v>55</v>
+      </c>
+      <c r="E61" t="n">
+        <v>104</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2080</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5720</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6123006</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>20</v>
+      </c>
+      <c r="D62" t="n">
+        <v>55</v>
+      </c>
+      <c r="E62" t="n">
+        <v>105</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5775</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6123007</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" t="n">
+        <v>55</v>
+      </c>
+      <c r="E63" t="n">
+        <v>106</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2120</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5830</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6123008</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>20</v>
+      </c>
+      <c r="D64" t="n">
+        <v>55</v>
+      </c>
+      <c r="E64" t="n">
+        <v>107</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2140</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5885</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6123009</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>55</v>
+      </c>
+      <c r="E65" t="n">
+        <v>108</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2160</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5940</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6123010</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>20</v>
+      </c>
+      <c r="D66" t="n">
+        <v>55</v>
+      </c>
+      <c r="E66" t="n">
+        <v>109</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2180</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5995</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6123011</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>背包</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>20</v>
+      </c>
+      <c r="D67" t="n">
+        <v>55</v>
+      </c>
+      <c r="E67" t="n">
+        <v>110</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3850</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>